--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/117.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/117.xlsx
@@ -479,13 +479,13 @@
         <v>-18.72773757983132</v>
       </c>
       <c r="E2" t="n">
-        <v>-13.83615783382067</v>
+        <v>-13.88397092379865</v>
       </c>
       <c r="F2" t="n">
-        <v>4.121925543638576</v>
+        <v>4.166177527243611</v>
       </c>
       <c r="G2" t="n">
-        <v>-9.513629312202074</v>
+        <v>-9.563118216943797</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-18.43188483348371</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.42021855589291</v>
+        <v>-14.46182589432392</v>
       </c>
       <c r="F3" t="n">
-        <v>4.342216631253459</v>
+        <v>4.380734186213817</v>
       </c>
       <c r="G3" t="n">
-        <v>-9.183742557499102</v>
+        <v>-9.234566877130682</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-18.07753857367524</v>
       </c>
       <c r="E4" t="n">
-        <v>-15.04020455696285</v>
+        <v>-15.08825330839198</v>
       </c>
       <c r="F4" t="n">
-        <v>4.404431254357341</v>
+        <v>4.449102191653311</v>
       </c>
       <c r="G4" t="n">
-        <v>-9.158552966831621</v>
+        <v>-9.199099828732447</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-17.68638263425486</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.65284577613858</v>
+        <v>-15.70855352473012</v>
       </c>
       <c r="F5" t="n">
-        <v>4.396602057257989</v>
+        <v>4.427238045907628</v>
       </c>
       <c r="G5" t="n">
-        <v>-8.817289000959189</v>
+        <v>-8.847047805318432</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-17.27315628394883</v>
       </c>
       <c r="E6" t="n">
-        <v>-16.31777765286416</v>
+        <v>-16.35005017936902</v>
       </c>
       <c r="F6" t="n">
-        <v>4.382436185583241</v>
+        <v>4.416449988366046</v>
       </c>
       <c r="G6" t="n">
-        <v>-8.400901401380933</v>
+        <v>-8.444511862146722</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-16.85912083537644</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.84991430186612</v>
+        <v>-16.90605409645144</v>
       </c>
       <c r="F7" t="n">
-        <v>4.624329572886973</v>
+        <v>4.659416944502798</v>
       </c>
       <c r="G7" t="n">
-        <v>-8.38009773216543</v>
+        <v>-8.430162698232191</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-16.44265128384574</v>
       </c>
       <c r="E8" t="n">
-        <v>-17.84667059411525</v>
+        <v>-17.89127606989701</v>
       </c>
       <c r="F8" t="n">
-        <v>4.774524471087254</v>
+        <v>4.821211623020849</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.564682926577047</v>
+        <v>-7.584701057622047</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-16.03585635198106</v>
       </c>
       <c r="E9" t="n">
-        <v>-18.47129127039116</v>
+        <v>-18.52205012850853</v>
       </c>
       <c r="F9" t="n">
-        <v>4.751482018085816</v>
+        <v>4.772272594998477</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.159764184288144</v>
+        <v>-7.182911375712315</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-15.63118285365724</v>
       </c>
       <c r="E10" t="n">
-        <v>-19.21551013312623</v>
+        <v>-19.2571043792544</v>
       </c>
       <c r="F10" t="n">
-        <v>4.891883873760486</v>
+        <v>4.918749279191708</v>
       </c>
       <c r="G10" t="n">
-        <v>-6.327407938822567</v>
+        <v>-6.32219720229156</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-15.22333546017905</v>
       </c>
       <c r="E11" t="n">
-        <v>-20.09036399361605</v>
+        <v>-20.11407415406242</v>
       </c>
       <c r="F11" t="n">
-        <v>5.071248422692133</v>
+        <v>5.10725225550688</v>
       </c>
       <c r="G11" t="n">
-        <v>-6.065771358833513</v>
+        <v>-6.081180999278225</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-14.81381275412377</v>
       </c>
       <c r="E12" t="n">
-        <v>-21.03561516648583</v>
+        <v>-21.07413272144619</v>
       </c>
       <c r="F12" t="n">
-        <v>5.429663305287226</v>
+        <v>5.448175821505427</v>
       </c>
       <c r="G12" t="n">
-        <v>-5.465567827357424</v>
+        <v>-5.471420086727675</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-14.38839620075091</v>
       </c>
       <c r="E13" t="n">
-        <v>-21.70099218150803</v>
+        <v>-21.74674977993987</v>
       </c>
       <c r="F13" t="n">
-        <v>5.561267133452257</v>
+        <v>5.579753465064774</v>
       </c>
       <c r="G13" t="n">
-        <v>-5.04631301345683</v>
+        <v>-5.063477022482332</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-13.95860027764562</v>
       </c>
       <c r="E14" t="n">
-        <v>-22.51249238854674</v>
+        <v>-22.54786779082509</v>
       </c>
       <c r="F14" t="n">
-        <v>5.844636936158576</v>
+        <v>5.875953724555985</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.114782573965178</v>
+        <v>-4.124575616490789</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-13.52567959058763</v>
       </c>
       <c r="E15" t="n">
-        <v>-23.50761214294066</v>
+        <v>-23.5481328202358</v>
       </c>
       <c r="F15" t="n">
-        <v>6.057491595759358</v>
+        <v>6.097004165735687</v>
       </c>
       <c r="G15" t="n">
-        <v>-3.690539592681886</v>
+        <v>-3.691416776972282</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-13.09249007016293</v>
       </c>
       <c r="E16" t="n">
-        <v>-24.16860323651088</v>
+        <v>-24.20342876206987</v>
       </c>
       <c r="F16" t="n">
-        <v>6.350890102442439</v>
+        <v>6.3789599997351</v>
       </c>
       <c r="G16" t="n">
-        <v>-3.477933686835097</v>
+        <v>-3.476048395225888</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-12.67232216303603</v>
       </c>
       <c r="E17" t="n">
-        <v>-25.04762044930437</v>
+        <v>-25.07197213258998</v>
       </c>
       <c r="F17" t="n">
-        <v>6.703439633364439</v>
+        <v>6.723182826049762</v>
       </c>
       <c r="G17" t="n">
-        <v>-3.369909096088015</v>
+        <v>-3.361281268515317</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-12.26583261310172</v>
       </c>
       <c r="E18" t="n">
-        <v>-25.78236048478204</v>
+        <v>-25.80053260112635</v>
       </c>
       <c r="F18" t="n">
-        <v>6.570971713211855</v>
+        <v>6.618365849498903</v>
       </c>
       <c r="G18" t="n">
-        <v>-2.987823329955082</v>
+        <v>-2.988464852794326</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-11.88688906063681</v>
       </c>
       <c r="E19" t="n">
-        <v>-26.41520312724255</v>
+        <v>-26.43757787279906</v>
       </c>
       <c r="F19" t="n">
-        <v>6.685267517020123</v>
+        <v>6.732583099490121</v>
       </c>
       <c r="G19" t="n">
-        <v>-2.606365994358551</v>
+        <v>-2.581019296056969</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-11.54868765299805</v>
       </c>
       <c r="E20" t="n">
-        <v>-26.92518759983631</v>
+        <v>-26.93868576406613</v>
       </c>
       <c r="F20" t="n">
-        <v>6.909774326150042</v>
+        <v>6.950412834170759</v>
       </c>
       <c r="G20" t="n">
-        <v>-2.359301147432338</v>
+        <v>-2.350346012288598</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-11.25452402715105</v>
       </c>
       <c r="E21" t="n">
-        <v>-27.28000209914993</v>
+        <v>-27.29693044672428</v>
       </c>
       <c r="F21" t="n">
-        <v>6.86599366544731</v>
+        <v>6.913675832396876</v>
       </c>
       <c r="G21" t="n">
-        <v>-2.155493269095189</v>
+        <v>-2.1285754944526</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-11.01595521060885</v>
       </c>
       <c r="E22" t="n">
-        <v>-27.78812746474015</v>
+        <v>-27.81614499282145</v>
       </c>
       <c r="F22" t="n">
-        <v>6.900033652835798</v>
+        <v>6.968165996824141</v>
       </c>
       <c r="G22" t="n">
-        <v>-2.191588748029827</v>
+        <v>-2.162995158623497</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-10.82835754722487</v>
       </c>
       <c r="E23" t="n">
-        <v>-28.00696530673961</v>
+        <v>-28.03184068213888</v>
       </c>
       <c r="F23" t="n">
-        <v>6.930669641485436</v>
+        <v>6.981886730202269</v>
       </c>
       <c r="G23" t="n">
-        <v>-2.260506630188673</v>
+        <v>-2.246772804507703</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-10.68409937241501</v>
       </c>
       <c r="E24" t="n">
-        <v>-28.41896698486588</v>
+        <v>-28.43852688531142</v>
       </c>
       <c r="F24" t="n">
-        <v>7.138025533892694</v>
+        <v>7.195474558762188</v>
       </c>
       <c r="G24" t="n">
-        <v>-2.578309189368732</v>
+        <v>-2.563135210375171</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-10.57307011464324</v>
       </c>
       <c r="E25" t="n">
-        <v>-28.31187194762056</v>
+        <v>-28.34149982895139</v>
       </c>
       <c r="F25" t="n">
-        <v>7.11576861906176</v>
+        <v>7.161879709670319</v>
       </c>
       <c r="G25" t="n">
-        <v>-2.474068274142909</v>
+        <v>-2.462285201585356</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-10.46836027119502</v>
       </c>
       <c r="E26" t="n">
-        <v>-28.79976970532033</v>
+        <v>-28.81593869932986</v>
       </c>
       <c r="F26" t="n">
-        <v>7.119146433194925</v>
+        <v>7.179868533774851</v>
       </c>
       <c r="G26" t="n">
-        <v>-2.560202534538625</v>
+        <v>-2.556824720405459</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-10.35807281017268</v>
       </c>
       <c r="E27" t="n">
-        <v>-28.65680175828868</v>
+        <v>-28.68238411804141</v>
       </c>
       <c r="F27" t="n">
-        <v>7.304114487742831</v>
+        <v>7.369890217219663</v>
       </c>
       <c r="G27" t="n">
-        <v>-2.641819950453945</v>
+        <v>-2.631516308117507</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-10.22328330509304</v>
       </c>
       <c r="E28" t="n">
-        <v>-28.89893080704356</v>
+        <v>-28.92387164395705</v>
       </c>
       <c r="F28" t="n">
-        <v>7.110217482656868</v>
+        <v>7.181570533144275</v>
       </c>
       <c r="G28" t="n">
-        <v>-2.807987458121132</v>
+        <v>-2.787471819568148</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-10.04906891150404</v>
       </c>
       <c r="E29" t="n">
-        <v>-29.24431884831113</v>
+        <v>-29.28106894238786</v>
       </c>
       <c r="F29" t="n">
-        <v>7.159104141467873</v>
+        <v>7.243366202557223</v>
       </c>
       <c r="G29" t="n">
-        <v>-2.911927250381595</v>
+        <v>-2.906179729434078</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-9.831699397420202</v>
       </c>
       <c r="E30" t="n">
-        <v>-28.94536920522316</v>
+        <v>-28.97377950238971</v>
       </c>
       <c r="F30" t="n">
-        <v>7.003305737651333</v>
+        <v>7.086441860696294</v>
       </c>
       <c r="G30" t="n">
-        <v>-2.897564994164222</v>
+        <v>-2.885376060218575</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-9.564218985884699</v>
       </c>
       <c r="E31" t="n">
-        <v>-28.8599419291809</v>
+        <v>-28.8811514597845</v>
       </c>
       <c r="F31" t="n">
-        <v>6.954445263446011</v>
+        <v>7.03794797097054</v>
       </c>
       <c r="G31" t="n">
-        <v>-2.812792333264046</v>
+        <v>-2.79105911054678</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-9.256211540806957</v>
       </c>
       <c r="E32" t="n">
-        <v>-28.74369537224921</v>
+        <v>-28.7585944128831</v>
       </c>
       <c r="F32" t="n">
-        <v>7.047479167439317</v>
+        <v>7.114407019566221</v>
       </c>
       <c r="G32" t="n">
-        <v>-3.322109098412873</v>
+        <v>-3.306568534939744</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-8.920904230436227</v>
       </c>
       <c r="E33" t="n">
-        <v>-28.63555295077656</v>
+        <v>-28.65940712655418</v>
       </c>
       <c r="F33" t="n">
-        <v>7.2715670228783</v>
+        <v>7.357164498857505</v>
       </c>
       <c r="G33" t="n">
-        <v>-3.629267615382608</v>
+        <v>-3.607403469636926</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-8.571911475687807</v>
       </c>
       <c r="E34" t="n">
-        <v>-28.23532125290499</v>
+        <v>-28.26009188988154</v>
       </c>
       <c r="F34" t="n">
-        <v>7.231085622491683</v>
+        <v>7.308722978343119</v>
       </c>
       <c r="G34" t="n">
-        <v>-3.826699542235838</v>
+        <v>-3.812743147406558</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-8.232155233423056</v>
       </c>
       <c r="E35" t="n">
-        <v>-28.13665765868974</v>
+        <v>-28.16242331068226</v>
       </c>
       <c r="F35" t="n">
-        <v>7.182460809737512</v>
+        <v>7.251064476628157</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.080650940456798</v>
+        <v>-4.075387834714424</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-7.915495156686286</v>
       </c>
       <c r="E36" t="n">
-        <v>-27.83234017143666</v>
+        <v>-27.85526479371253</v>
       </c>
       <c r="F36" t="n">
-        <v>7.35682409898362</v>
+        <v>7.420086106314841</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.288962570971502</v>
+        <v>-4.280360928004487</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-7.635337712366119</v>
       </c>
       <c r="E37" t="n">
-        <v>-27.38849801279931</v>
+        <v>-27.42230233873664</v>
       </c>
       <c r="F37" t="n">
-        <v>7.062247285044783</v>
+        <v>7.125273630924853</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.683499117106916</v>
+        <v>-4.666754061772349</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-7.403321951619168</v>
       </c>
       <c r="E38" t="n">
-        <v>-27.19483666916449</v>
+        <v>-27.2248965964891</v>
       </c>
       <c r="F38" t="n">
-        <v>7.437525053700019</v>
+        <v>7.497671092954909</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.697324588907779</v>
+        <v>-4.679977287642492</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-7.216802969273664</v>
       </c>
       <c r="E39" t="n">
-        <v>-26.87148297357955</v>
+        <v>-26.88868625951357</v>
       </c>
       <c r="F39" t="n">
-        <v>7.338363951976786</v>
+        <v>7.38609848813772</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.864827511464823</v>
+        <v>-4.844979580356766</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-7.078083942365694</v>
       </c>
       <c r="E40" t="n">
-        <v>-26.51411547521179</v>
+        <v>-26.54278761843517</v>
       </c>
       <c r="F40" t="n">
-        <v>7.447187173197213</v>
+        <v>7.489789526644191</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.953959909211294</v>
+        <v>-4.936848269397158</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-6.978829051530298</v>
       </c>
       <c r="E41" t="n">
-        <v>-26.22973756518666</v>
+        <v>-26.26943342740277</v>
       </c>
       <c r="F41" t="n">
-        <v>7.552056518959439</v>
+        <v>7.591307242878934</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.32567657149358</v>
+        <v>-5.306496347830452</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-6.908919969804649</v>
       </c>
       <c r="E42" t="n">
-        <v>-25.52205931968284</v>
+        <v>-25.5460182338832</v>
       </c>
       <c r="F42" t="n">
-        <v>7.520111300025627</v>
+        <v>7.563473007037424</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.402947342865447</v>
+        <v>-5.386398672073506</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-6.860783155784356</v>
       </c>
       <c r="E43" t="n">
-        <v>-25.029369779143</v>
+        <v>-25.05408804690818</v>
       </c>
       <c r="F43" t="n">
-        <v>7.458053784555847</v>
+        <v>7.512255918320592</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.433661885332137</v>
+        <v>-5.415044630691202</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-6.817620414422494</v>
       </c>
       <c r="E44" t="n">
-        <v>-24.73789584097766</v>
+        <v>-24.76679055334935</v>
       </c>
       <c r="F44" t="n">
-        <v>7.671117921002097</v>
+        <v>7.705236462207634</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.47547870060861</v>
+        <v>-5.458995491330877</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-6.7712967190848</v>
       </c>
       <c r="E45" t="n">
-        <v>-24.19840131777865</v>
+        <v>-24.2238003852916</v>
       </c>
       <c r="F45" t="n">
-        <v>7.601414500672747</v>
+        <v>7.634538026862313</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.523448898220694</v>
+        <v>-5.51294887134163</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-6.711852354620489</v>
       </c>
       <c r="E46" t="n">
-        <v>-23.82130371902841</v>
+        <v>-23.85053883127399</v>
       </c>
       <c r="F46" t="n">
-        <v>7.490810726265845</v>
+        <v>7.527024035926059</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.42617308810667</v>
+        <v>-5.406351341604297</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-6.629834493717613</v>
       </c>
       <c r="E47" t="n">
-        <v>-23.34736235615793</v>
+        <v>-23.37629634543815</v>
       </c>
       <c r="F47" t="n">
-        <v>7.671877274566916</v>
+        <v>7.711258921514828</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.56171769942706</v>
+        <v>-5.545876012988571</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-6.524521938650767</v>
       </c>
       <c r="E48" t="n">
-        <v>-22.60436107758714</v>
+        <v>-22.62278194768544</v>
       </c>
       <c r="F48" t="n">
-        <v>7.682403486051664</v>
+        <v>7.735505866377705</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.826797555063488</v>
+        <v>-5.804239517267193</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-6.39375879094174</v>
       </c>
       <c r="E49" t="n">
-        <v>-22.30529360377358</v>
+        <v>-22.32868954895175</v>
       </c>
       <c r="F49" t="n">
-        <v>7.740768972120079</v>
+        <v>7.794735444433674</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.68300479295281</v>
+        <v>-5.634707287769682</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-6.24107248256387</v>
       </c>
       <c r="E50" t="n">
-        <v>-21.831195133269</v>
+        <v>-21.85511477056084</v>
       </c>
       <c r="F50" t="n">
-        <v>7.6608273709685</v>
+        <v>7.718276395837994</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.721941301604104</v>
+        <v>-5.684955546076227</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-6.075822002881639</v>
       </c>
       <c r="E51" t="n">
-        <v>-21.27056963328345</v>
+        <v>-21.29431907063834</v>
       </c>
       <c r="F51" t="n">
-        <v>7.73872657287677</v>
+        <v>7.787168093391156</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.838750827557983</v>
+        <v>-5.798963319221977</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-5.904220660286881</v>
       </c>
       <c r="E52" t="n">
-        <v>-20.93251328160724</v>
+        <v>-20.95093415170555</v>
       </c>
       <c r="F52" t="n">
-        <v>7.47583313181491</v>
+        <v>7.511077611064836</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.962761120074813</v>
+        <v>-5.927673748458987</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-5.740683536284501</v>
       </c>
       <c r="E53" t="n">
-        <v>-20.20616541225112</v>
+        <v>-20.22287119067716</v>
       </c>
       <c r="F53" t="n">
-        <v>7.645587930460731</v>
+        <v>7.686828684412167</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.006214473206501</v>
+        <v>-5.965458134460208</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-5.597193033994068</v>
       </c>
       <c r="E54" t="n">
-        <v>-19.27975406317058</v>
+        <v>-19.29820111787458</v>
       </c>
       <c r="F54" t="n">
-        <v>7.552449288044691</v>
+        <v>7.604923237834329</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.044928412709486</v>
+        <v>-5.992781770490891</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-5.483613464754609</v>
       </c>
       <c r="E55" t="n">
-        <v>-18.89146254549067</v>
+        <v>-18.90981795407477</v>
       </c>
       <c r="F55" t="n">
-        <v>7.518173639205052</v>
+        <v>7.560016639087209</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.489399001883243</v>
+        <v>-6.445408864335044</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-5.412682523589041</v>
       </c>
       <c r="E56" t="n">
-        <v>-18.7610370245814</v>
+        <v>-18.79253710521859</v>
       </c>
       <c r="F56" t="n">
-        <v>7.256537059215998</v>
+        <v>7.290969815689738</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.3880383932826</v>
+        <v>-6.327473400336776</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-5.387109505531826</v>
       </c>
       <c r="E57" t="n">
-        <v>-18.46338351947475</v>
+        <v>-18.49285429317148</v>
       </c>
       <c r="F57" t="n">
-        <v>7.267115639912113</v>
+        <v>7.301469842568802</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.286978907647317</v>
+        <v>-6.228626513881744</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-5.41087473245081</v>
       </c>
       <c r="E58" t="n">
-        <v>-17.87657341380575</v>
+        <v>-17.89432657645913</v>
       </c>
       <c r="F58" t="n">
-        <v>7.017628716960181</v>
+        <v>7.04014747784795</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.459208151530223</v>
+        <v>-6.421436857831844</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-5.482756254489452</v>
       </c>
       <c r="E59" t="n">
-        <v>-17.35881211332401</v>
+        <v>-17.39719874525595</v>
       </c>
       <c r="F59" t="n">
-        <v>7.080157555332265</v>
+        <v>7.122576616539457</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.569523895274608</v>
+        <v>-6.535117323406551</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-5.593329002300452</v>
       </c>
       <c r="E60" t="n">
-        <v>-17.09258013503751</v>
+        <v>-17.12294118532747</v>
       </c>
       <c r="F60" t="n">
-        <v>7.212311260216648</v>
+        <v>7.262821364580027</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.929103992822614</v>
+        <v>-6.898494188778658</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-5.735508794553253</v>
       </c>
       <c r="E61" t="n">
-        <v>-16.72510537887594</v>
+        <v>-16.76855873200763</v>
       </c>
       <c r="F61" t="n">
-        <v>7.004745890963923</v>
+        <v>7.042870676839029</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.735311726159384</v>
+        <v>-6.685770452206293</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-5.898138903747164</v>
       </c>
       <c r="E62" t="n">
-        <v>-16.32632692661981</v>
+        <v>-16.36073349848786</v>
       </c>
       <c r="F62" t="n">
-        <v>7.003122445411549</v>
+        <v>7.040697354567302</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.72723377530604</v>
+        <v>-6.670949965389459</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-6.068985014230401</v>
       </c>
       <c r="E63" t="n">
-        <v>-15.82423711263961</v>
+        <v>-15.84683442734443</v>
       </c>
       <c r="F63" t="n">
-        <v>6.903175805517812</v>
+        <v>6.941274406787235</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.73019263574827</v>
+        <v>-6.682759222552696</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-6.239484155507824</v>
       </c>
       <c r="E64" t="n">
-        <v>-15.61034816111433</v>
+        <v>-15.64432268698861</v>
       </c>
       <c r="F64" t="n">
-        <v>6.709619200305734</v>
+        <v>6.752771430472063</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.475364053236913</v>
+        <v>-6.435550360295224</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-6.396019729310839</v>
       </c>
       <c r="E65" t="n">
-        <v>-15.37192423406366</v>
+        <v>-15.3993918854256</v>
       </c>
       <c r="F65" t="n">
-        <v>6.677412135315087</v>
+        <v>6.709409723460266</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.569681002908708</v>
+        <v>-6.522692728009753</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-6.530947850182624</v>
       </c>
       <c r="E66" t="n">
-        <v>-14.97771499549929</v>
+        <v>-15.00747379985853</v>
       </c>
       <c r="F66" t="n">
-        <v>6.683172748565447</v>
+        <v>6.720119227184798</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.649295296489244</v>
+        <v>-6.60784506569234</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-6.636804398522957</v>
       </c>
       <c r="E67" t="n">
-        <v>-14.86358939162796</v>
+        <v>-14.88729955207433</v>
       </c>
       <c r="F67" t="n">
-        <v>6.635988089123867</v>
+        <v>6.672306137206815</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.613671140456908</v>
+        <v>-6.571265171552557</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-6.706019691623573</v>
       </c>
       <c r="E68" t="n">
-        <v>-14.4935747287151</v>
+        <v>-14.50990083035873</v>
       </c>
       <c r="F68" t="n">
-        <v>6.347669395943375</v>
+        <v>6.384642059168409</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.464549811089648</v>
+        <v>-6.421816534614254</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-6.737594242681946</v>
       </c>
       <c r="E69" t="n">
-        <v>-14.65644297606617</v>
+        <v>-14.6685009869834</v>
       </c>
       <c r="F69" t="n">
-        <v>6.330911248305966</v>
+        <v>6.370580925916395</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.373532121733968</v>
+        <v>-6.3273555696112</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-6.725770826738204</v>
       </c>
       <c r="E70" t="n">
-        <v>-14.52136968764809</v>
+        <v>-14.53763032777751</v>
       </c>
       <c r="F70" t="n">
-        <v>6.277180437443522</v>
+        <v>6.318002237704023</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.463004919354324</v>
+        <v>-6.41837325896688</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-6.671542617025949</v>
       </c>
       <c r="E71" t="n">
-        <v>-14.50326303281798</v>
+        <v>-14.51926182689057</v>
       </c>
       <c r="F71" t="n">
-        <v>6.372780432793806</v>
+        <v>6.424730690469774</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.309170360964043</v>
+        <v>-6.264460146759548</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-6.575471005183964</v>
       </c>
       <c r="E72" t="n">
-        <v>-14.45255654391197</v>
+        <v>-14.4793303032233</v>
       </c>
       <c r="F72" t="n">
-        <v>5.9893854363767</v>
+        <v>6.036386803578496</v>
       </c>
       <c r="G72" t="n">
-        <v>-6.397530312842852</v>
+        <v>-6.368046446843285</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-6.438664655466316</v>
       </c>
       <c r="E73" t="n">
-        <v>-14.69427973127876</v>
+        <v>-14.71111643273322</v>
       </c>
       <c r="F73" t="n">
-        <v>5.950998804444758</v>
+        <v>5.990459005209721</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.114932956004195</v>
+        <v>-6.083773275240887</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-6.266966905443909</v>
       </c>
       <c r="E74" t="n">
-        <v>-14.83764044739566</v>
+        <v>-14.85899399333052</v>
       </c>
       <c r="F74" t="n">
-        <v>5.881688153200661</v>
+        <v>5.918189493523393</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.878211028322946</v>
+        <v>-5.852262084090644</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-6.061537242690545</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.10430447167594</v>
+        <v>-15.12521287931417</v>
       </c>
       <c r="F75" t="n">
-        <v>5.602769733460528</v>
+        <v>5.632253599460095</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.682232347085148</v>
+        <v>-5.656100110613063</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-5.829018292090461</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.22091761308719</v>
+        <v>-15.23391826980903</v>
       </c>
       <c r="F76" t="n">
-        <v>5.621675018763981</v>
+        <v>5.657888328424195</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.42595051895836</v>
+        <v>-5.386437948982031</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-5.573763762879972</v>
       </c>
       <c r="E77" t="n">
-        <v>-15.42370429180269</v>
+        <v>-15.43464945697837</v>
       </c>
       <c r="F77" t="n">
-        <v>5.559879349351034</v>
+        <v>5.593971705950889</v>
       </c>
       <c r="G77" t="n">
-        <v>-5.411823924192138</v>
+        <v>-5.368815709357068</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-5.297812885145764</v>
       </c>
       <c r="E78" t="n">
-        <v>-15.8313855099912</v>
+        <v>-15.84937433409573</v>
       </c>
       <c r="F78" t="n">
-        <v>5.375513540733848</v>
+        <v>5.390360212156365</v>
       </c>
       <c r="G78" t="n">
-        <v>-4.934033424286187</v>
+        <v>-4.889441040807267</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-5.007638646577891</v>
       </c>
       <c r="E79" t="n">
-        <v>-16.08201146329036</v>
+        <v>-16.09512995073777</v>
       </c>
       <c r="F79" t="n">
-        <v>4.964389046897965</v>
+        <v>4.981147194535374</v>
       </c>
       <c r="G79" t="n">
-        <v>-5.035721340457873</v>
+        <v>-4.989649526757839</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-4.702398937716247</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.68336711741652</v>
+        <v>-16.71295572183882</v>
       </c>
       <c r="F80" t="n">
-        <v>5.158914482520331</v>
+        <v>5.173577861703064</v>
       </c>
       <c r="G80" t="n">
-        <v>-4.941129452426402</v>
+        <v>-4.883785165979642</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-4.386367478558643</v>
       </c>
       <c r="E81" t="n">
-        <v>-17.28995969267937</v>
+        <v>-17.30640362504858</v>
       </c>
       <c r="F81" t="n">
-        <v>4.830454788827108</v>
+        <v>4.837027124853654</v>
       </c>
       <c r="G81" t="n">
-        <v>-4.889873086801045</v>
+        <v>-4.835147260922629</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-4.061749438341614</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.97479186972438</v>
+        <v>-17.99714043067521</v>
       </c>
       <c r="F82" t="n">
-        <v>4.981147194535374</v>
+        <v>5.028384223188322</v>
       </c>
       <c r="G82" t="n">
-        <v>-4.783301741669394</v>
+        <v>-4.73123365326785</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-3.726376682216697</v>
       </c>
       <c r="E83" t="n">
-        <v>-18.76095847076435</v>
+        <v>-18.79431765840506</v>
       </c>
       <c r="F83" t="n">
-        <v>4.822442299487971</v>
+        <v>4.846060813814445</v>
       </c>
       <c r="G83" t="n">
-        <v>-4.701579587331341</v>
+        <v>-4.646120592493789</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-3.386795721848</v>
       </c>
       <c r="E84" t="n">
-        <v>-19.65207297138359</v>
+        <v>-19.68600822034934</v>
       </c>
       <c r="F84" t="n">
-        <v>4.890260428208112</v>
+        <v>4.909637036413867</v>
       </c>
       <c r="G84" t="n">
-        <v>-4.559187701624728</v>
+        <v>-4.519963162310916</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-3.041735151196757</v>
       </c>
       <c r="E85" t="n">
-        <v>-20.7190432837729</v>
+        <v>-20.75252030213919</v>
       </c>
       <c r="F85" t="n">
-        <v>4.627236064117835</v>
+        <v>4.634567753709202</v>
       </c>
       <c r="G85" t="n">
-        <v>-4.294199492108192</v>
+        <v>-4.25579976787341</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-2.695223138447883</v>
       </c>
       <c r="E86" t="n">
-        <v>-21.86083610690267</v>
+        <v>-21.89731126261972</v>
       </c>
       <c r="F86" t="n">
-        <v>4.543628618170573</v>
+        <v>4.55779448984532</v>
       </c>
       <c r="G86" t="n">
-        <v>-4.057438287518418</v>
+        <v>-4.032405804485037</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-2.351988623823757</v>
       </c>
       <c r="E87" t="n">
-        <v>-23.01827423192831</v>
+        <v>-23.06183232348273</v>
       </c>
       <c r="F87" t="n">
-        <v>4.441822871273311</v>
+        <v>4.454888989509354</v>
       </c>
       <c r="G87" t="n">
-        <v>-3.977247932612846</v>
+        <v>-3.953000987749969</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-2.012201774351769</v>
       </c>
       <c r="E88" t="n">
-        <v>-24.30472390915631</v>
+        <v>-24.34279632582005</v>
       </c>
       <c r="F88" t="n">
-        <v>4.253293710352455</v>
+        <v>4.26811419716929</v>
       </c>
       <c r="G88" t="n">
-        <v>-4.121250171568991</v>
+        <v>-4.102986409104783</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-1.685035433590649</v>
       </c>
       <c r="E89" t="n">
-        <v>-26.04347337265742</v>
+        <v>-26.08090426648192</v>
       </c>
       <c r="F89" t="n">
-        <v>4.278876070105189</v>
+        <v>4.295529479319864</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.145601854854601</v>
+        <v>-4.137379888669997</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-1.374101311948318</v>
       </c>
       <c r="E90" t="n">
-        <v>-27.64578794824491</v>
+        <v>-27.70178372749897</v>
       </c>
       <c r="F90" t="n">
-        <v>3.984692025251604</v>
+        <v>4.001947680396999</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.228764162505245</v>
+        <v>-4.213511629694635</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-1.085137708289673</v>
       </c>
       <c r="E91" t="n">
-        <v>-29.21563361278491</v>
+        <v>-29.27470608320678</v>
       </c>
       <c r="F91" t="n">
-        <v>3.636567692690107</v>
+        <v>3.646858242723704</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.190639376630139</v>
+        <v>-4.176761535617909</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.8263582694816435</v>
       </c>
       <c r="E92" t="n">
-        <v>-30.86840592352441</v>
+        <v>-30.91687362864448</v>
       </c>
       <c r="F92" t="n">
-        <v>3.297529418300769</v>
+        <v>3.306379815021776</v>
       </c>
       <c r="G92" t="n">
-        <v>-4.386290750296893</v>
+        <v>-4.377990230295239</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.6014626929537776</v>
       </c>
       <c r="E93" t="n">
-        <v>-32.97076791384878</v>
+        <v>-33.0291333999172</v>
       </c>
       <c r="F93" t="n">
-        <v>3.112273333090346</v>
+        <v>3.12512997448092</v>
       </c>
       <c r="G93" t="n">
-        <v>-4.764907056176769</v>
+        <v>-4.768049208858784</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.4183866193332123</v>
       </c>
       <c r="E94" t="n">
-        <v>-35.03699514832999</v>
+        <v>-35.09012371326172</v>
       </c>
       <c r="F94" t="n">
-        <v>2.990226885999775</v>
+        <v>2.9993653133833</v>
       </c>
       <c r="G94" t="n">
-        <v>-4.986939420069602</v>
+        <v>-4.99512210934568</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.2812732842243432</v>
       </c>
       <c r="E95" t="n">
-        <v>-37.07608203902031</v>
+        <v>-37.11723114685185</v>
       </c>
       <c r="F95" t="n">
-        <v>2.617698500941302</v>
+        <v>2.626077574760006</v>
       </c>
       <c r="G95" t="n">
-        <v>-5.27363466769772</v>
+        <v>-5.298837350668042</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1959401649015945</v>
       </c>
       <c r="E96" t="n">
-        <v>-39.57702609705818</v>
+        <v>-39.61635537479473</v>
       </c>
       <c r="F96" t="n">
-        <v>2.283216347940884</v>
+        <v>2.301728864159085</v>
       </c>
       <c r="G96" t="n">
-        <v>-5.627663628840834</v>
+        <v>-5.66169052392648</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1622462302274062</v>
       </c>
       <c r="E97" t="n">
-        <v>-41.72798671553105</v>
+        <v>-41.77950492721323</v>
       </c>
       <c r="F97" t="n">
-        <v>2.030796749152405</v>
+        <v>2.042029944990606</v>
       </c>
       <c r="G97" t="n">
-        <v>-6.159577708694481</v>
+        <v>-6.192740511792572</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1870322558115071</v>
       </c>
       <c r="E98" t="n">
-        <v>-44.09155323985069</v>
+        <v>-44.13932705292015</v>
       </c>
       <c r="F98" t="n">
-        <v>1.443057089981639</v>
+        <v>1.449996010487753</v>
       </c>
       <c r="G98" t="n">
-        <v>-6.392201745586269</v>
+        <v>-6.442096511716088</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2554974303156284</v>
       </c>
       <c r="E99" t="n">
-        <v>-46.28929265637704</v>
+        <v>-46.34007769910009</v>
       </c>
       <c r="F99" t="n">
-        <v>1.193321413275714</v>
+        <v>1.198139380721469</v>
       </c>
       <c r="G99" t="n">
-        <v>-6.55733496132896</v>
+        <v>-6.58092729104975</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.3829172093107638</v>
       </c>
       <c r="E100" t="n">
-        <v>-48.61840023961727</v>
+        <v>-48.68319404638097</v>
       </c>
       <c r="F100" t="n">
-        <v>1.006965574626585</v>
+        <v>0.990285980806226</v>
       </c>
       <c r="G100" t="n">
-        <v>-6.796740811092763</v>
+        <v>-6.842210378862077</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.5275922199924801</v>
       </c>
       <c r="E101" t="n">
-        <v>-50.7486750196002</v>
+        <v>-50.81176682699447</v>
       </c>
       <c r="F101" t="n">
-        <v>0.7974494522504427</v>
+        <v>0.7839381957177814</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.964479395100957</v>
+        <v>-7.024389772904696</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.7377765398792903</v>
       </c>
       <c r="E102" t="n">
-        <v>-53.34088552074775</v>
+        <v>-53.38420795085102</v>
       </c>
       <c r="F102" t="n">
-        <v>0.3381321916541671</v>
+        <v>0.2982399448954278</v>
       </c>
       <c r="G102" t="n">
-        <v>-7.310927912898713</v>
+        <v>-7.365863215622595</v>
       </c>
     </row>
   </sheetData>
